--- a/biology/Zoologie/Ichthyophiidae/Ichthyophiidae.xlsx
+++ b/biology/Zoologie/Ichthyophiidae/Ichthyophiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ichthyophiidae sont une famille de gymnophiones[1]. Elle a été créée par Edward Harrison Taylor en 1968. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ichthyophiidae sont une famille de gymnophiones. Elle a été créée par Edward Harrison Taylor en 1968. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie du Sud-Est, dans le sud de la Chine et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Asie du Sud-Est, dans le sud de la Chine et en Inde.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des amphibiens avec des pattes atrophiées qui leur donnent un aspect de vers de terre.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 février 2014) :
 Ichthyophis Fitzinger, 1826
 Uraeotyphlus Peters, 1880</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1968 : The Caecilians of the World: A Taxonomic Review. Lawrence: University of Kansas Press.</t>
         </is>
